--- a/REGULAR/CALANOG, ALMA P..xlsx
+++ b/REGULAR/CALANOG, ALMA P..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB045B9B-0FC7-44F2-BC7B-BC158BB4A0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="228">
   <si>
     <t>PERIOD</t>
   </si>
@@ -724,7 +723,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1581,7 +1580,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1623,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1687,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1747,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1813,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1876,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1974,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2033,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2098,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2141,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2216,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2402,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2468,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2526,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2592,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,7 +2648,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2723,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2767,7 +2766,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2832,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2888,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +2986,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,7 +3049,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3116,25 +3115,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K423" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K423" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3146,13 +3145,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3161,14 +3160,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3472,7 +3471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3482,7 +3481,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3490,34 +3489,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A326" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A326" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B331" sqref="B331"/>
+      <selection pane="bottomLeft" activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3538,7 +3537,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3558,7 +3557,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3580,7 +3579,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3588,7 +3587,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3601,7 +3600,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3618,7 +3617,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3662,7 +3661,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>77.139999999999958</v>
+        <v>78.389999999999958</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3672,12 +3671,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140</v>
+        <v>140.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3699,7 +3698,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>38353</v>
       </c>
@@ -3717,7 +3716,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>38384</v>
       </c>
@@ -3735,7 +3734,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>38412</v>
       </c>
@@ -3753,7 +3752,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>38443</v>
       </c>
@@ -3771,7 +3770,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>38473</v>
       </c>
@@ -3789,7 +3788,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>38504</v>
       </c>
@@ -3807,7 +3806,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>38534</v>
       </c>
@@ -3825,7 +3824,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>38565</v>
       </c>
@@ -3845,7 +3844,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>38596</v>
       </c>
@@ -3865,7 +3864,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>38626</v>
       </c>
@@ -3885,7 +3884,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>38657</v>
       </c>
@@ -3905,7 +3904,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>38687</v>
       </c>
@@ -3925,7 +3924,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -3945,7 +3944,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>48</v>
       </c>
@@ -3967,7 +3966,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>38718</v>
       </c>
@@ -3991,7 +3990,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>38749</v>
       </c>
@@ -4011,7 +4010,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>38777</v>
       </c>
@@ -4031,7 +4030,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>38808</v>
       </c>
@@ -4055,7 +4054,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>38838</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>53</v>
@@ -4101,7 +4100,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>54</v>
@@ -4121,7 +4120,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>55</v>
@@ -4143,7 +4142,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>56</v>
@@ -4163,7 +4162,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>38869</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>38867</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>57</v>
@@ -4211,7 +4210,7 @@
         <v>38894</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>58</v>
@@ -4231,7 +4230,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>38899</v>
       </c>
@@ -4257,7 +4256,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>59</v>
@@ -4277,7 +4276,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>38930</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>38961</v>
       </c>
@@ -4323,7 +4322,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>38991</v>
       </c>
@@ -4347,7 +4346,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>39022</v>
       </c>
@@ -4373,7 +4372,7 @@
         <v>39015</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>64</v>
@@ -4395,7 +4394,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>55</v>
@@ -4417,7 +4416,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>39052</v>
       </c>
@@ -4437,7 +4436,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
         <v>47</v>
       </c>
@@ -4459,7 +4458,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>39083</v>
       </c>
@@ -4483,7 +4482,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>39114</v>
       </c>
@@ -4505,7 +4504,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>57</v>
@@ -4529,7 +4528,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>69</v>
@@ -4553,7 +4552,7 @@
         <v>39133</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>39142</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>70</v>
@@ -4601,7 +4600,7 @@
         <v>39170</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>57</v>
@@ -4623,7 +4622,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>39173</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>39214</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>73</v>
@@ -4671,7 +4670,7 @@
         <v>39204</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>39203</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>77</v>
@@ -4721,7 +4720,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>39234</v>
       </c>
@@ -4745,7 +4744,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>72</v>
@@ -4765,7 +4764,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>39264</v>
       </c>
@@ -4791,7 +4790,7 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>39295</v>
       </c>
@@ -4815,7 +4814,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>39326</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>52</v>
@@ -4863,7 +4862,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>78</v>
@@ -4883,7 +4882,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>39356</v>
       </c>
@@ -4907,7 +4906,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>39387</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>39385</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>80</v>
@@ -4955,7 +4954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>39417</v>
       </c>
@@ -4979,7 +4978,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>82</v>
@@ -4999,7 +4998,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="47" t="s">
         <v>46</v>
       </c>
@@ -5021,7 +5020,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>39448</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>39451</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>86</v>
@@ -5067,7 +5066,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>39479</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>39486</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>87</v>
@@ -5113,7 +5112,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>39508</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>39513</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>88</v>
@@ -5159,7 +5158,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>39539</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>39547</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>55</v>
@@ -5205,7 +5204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>89</v>
@@ -5225,7 +5224,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>39569</v>
       </c>
@@ -5249,7 +5248,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>55</v>
@@ -5271,7 +5270,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>39600</v>
       </c>
@@ -5295,7 +5294,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>39630</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>39643</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>94</v>
@@ -5339,7 +5338,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>39661</v>
       </c>
@@ -5363,7 +5362,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>39692</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>96</v>
@@ -5409,7 +5408,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>39722</v>
       </c>
@@ -5435,7 +5434,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39753</v>
       </c>
@@ -5459,7 +5458,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>99</v>
@@ -5479,7 +5478,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>39783</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>100</v>
@@ -5527,7 +5526,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>45</v>
       </c>
@@ -5549,7 +5548,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>39814</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>39846</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>103</v>
@@ -5593,7 +5592,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>39845</v>
       </c>
@@ -5617,7 +5616,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>39873</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>52</v>
@@ -5665,7 +5664,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>106</v>
@@ -5685,7 +5684,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>39904</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>39910</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>107</v>
@@ -5731,7 +5730,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>39934</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>110</v>
@@ -5777,7 +5776,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>39965</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>39986</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>57</v>
@@ -5825,7 +5824,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>111</v>
@@ -5845,7 +5844,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>39995</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>40018</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>112</v>
@@ -5891,7 +5890,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>40026</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>113</v>
@@ -5937,7 +5936,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>40057</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>40059</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>57</v>
@@ -5985,7 +5984,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>70</v>
@@ -6005,7 +6004,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>40087</v>
       </c>
@@ -6031,7 +6030,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>114</v>
@@ -6051,7 +6050,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>40118</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>57</v>
@@ -6099,7 +6098,7 @@
         <v>40149</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>115</v>
@@ -6119,7 +6118,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>40148</v>
       </c>
@@ -6143,7 +6142,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="47" t="s">
         <v>44</v>
       </c>
@@ -6165,7 +6164,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>40179</v>
       </c>
@@ -6189,7 +6188,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>40210</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>40211</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>57</v>
@@ -6237,7 +6236,7 @@
         <v>40234</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>59</v>
@@ -6257,7 +6256,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>40238</v>
       </c>
@@ -6281,7 +6280,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>40269</v>
       </c>
@@ -6307,7 +6306,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>121</v>
@@ -6327,7 +6326,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>40299</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>40312</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>57</v>
@@ -6375,7 +6374,7 @@
         <v>40318</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>57</v>
@@ -6397,7 +6396,7 @@
         <v>40326</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>122</v>
@@ -6417,7 +6416,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>40330</v>
       </c>
@@ -6441,7 +6440,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>40360</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>40391</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>40415</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>40422</v>
       </c>
@@ -6513,7 +6512,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>40452</v>
       </c>
@@ -6539,7 +6538,7 @@
         <v>40459</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>40483</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>124</v>
@@ -6587,7 +6586,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>40513</v>
       </c>
@@ -6607,7 +6606,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>119</v>
       </c>
@@ -6629,7 +6628,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>40544</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>129</v>
@@ -6675,7 +6674,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>40575</v>
       </c>
@@ -6701,7 +6700,7 @@
         <v>40576</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>130</v>
@@ -6723,7 +6722,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>131</v>
@@ -6743,7 +6742,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>40603</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>132</v>
@@ -6789,7 +6788,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>40634</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>40639</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>133</v>
@@ -6835,7 +6834,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>40664</v>
       </c>
@@ -6861,7 +6860,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>55</v>
@@ -6883,7 +6882,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>134</v>
@@ -6903,7 +6902,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>40695</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>40704</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>135</v>
@@ -6949,7 +6948,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>40725</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>40738</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>136</v>
@@ -6995,7 +6994,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>40756</v>
       </c>
@@ -7019,7 +7018,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>40787</v>
       </c>
@@ -7045,7 +7044,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>141</v>
@@ -7065,7 +7064,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40817</v>
       </c>
@@ -7085,7 +7084,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40848</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>142</v>
@@ -7131,7 +7130,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40878</v>
       </c>
@@ -7155,7 +7154,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>143</v>
@@ -7175,7 +7174,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="47" t="s">
         <v>118</v>
       </c>
@@ -7197,7 +7196,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40909</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>40926</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>55</v>
@@ -7245,7 +7244,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>40940</v>
       </c>
@@ -7265,7 +7264,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>40969</v>
       </c>
@@ -7291,7 +7290,7 @@
         <v>40998</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>41000</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>41030</v>
       </c>
@@ -7337,7 +7336,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>41061</v>
       </c>
@@ -7357,7 +7356,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>41091</v>
       </c>
@@ -7383,7 +7382,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>41122</v>
       </c>
@@ -7403,7 +7402,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>41153</v>
       </c>
@@ -7423,7 +7422,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>41183</v>
       </c>
@@ -7449,7 +7448,7 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>41214</v>
       </c>
@@ -7469,7 +7468,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41244</v>
       </c>
@@ -7493,7 +7492,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>124</v>
@@ -7515,7 +7514,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="47" t="s">
         <v>117</v>
       </c>
@@ -7533,7 +7532,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>41275</v>
       </c>
@@ -7557,7 +7556,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>41306</v>
       </c>
@@ -7583,7 +7582,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>41334</v>
       </c>
@@ -7603,7 +7602,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>41365</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>41369</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>41395</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>41415</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>41426</v>
       </c>
@@ -7675,7 +7674,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>41456</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>41465</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>41487</v>
       </c>
@@ -7721,7 +7720,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>41518</v>
       </c>
@@ -7747,7 +7746,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>41548</v>
       </c>
@@ -7767,7 +7766,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>41579</v>
       </c>
@@ -7787,7 +7786,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>41609</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="47" t="s">
         <v>147</v>
       </c>
@@ -7835,7 +7834,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>41640</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>41670</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>158</v>
@@ -7883,7 +7882,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>41671</v>
       </c>
@@ -7907,7 +7906,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>41699</v>
       </c>
@@ -7933,7 +7932,7 @@
         <v>41711</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>57</v>
@@ -7955,7 +7954,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>160</v>
@@ -7975,7 +7974,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>41730</v>
       </c>
@@ -8001,7 +8000,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>161</v>
@@ -8021,7 +8020,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>41760</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>162</v>
@@ -8067,7 +8066,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>41791</v>
       </c>
@@ -8091,7 +8090,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>41821</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>41824</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>68</v>
@@ -8137,7 +8136,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>168</v>
@@ -8157,7 +8156,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>41852</v>
       </c>
@@ -8181,7 +8180,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>41883</v>
       </c>
@@ -8205,7 +8204,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>41913</v>
       </c>
@@ -8229,7 +8228,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41944</v>
       </c>
@@ -8253,7 +8252,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>130</v>
@@ -8273,7 +8272,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>172</v>
@@ -8293,7 +8292,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>41974</v>
       </c>
@@ -8321,7 +8320,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="47" t="s">
         <v>146</v>
       </c>
@@ -8343,7 +8342,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42005</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>42354</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>57</v>
@@ -8391,7 +8390,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>175</v>
@@ -8411,7 +8410,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>42036</v>
       </c>
@@ -8435,7 +8434,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>42064</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>177</v>
@@ -8481,7 +8480,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>42095</v>
       </c>
@@ -8507,7 +8506,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>178</v>
@@ -8527,7 +8526,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>42125</v>
       </c>
@@ -8551,7 +8550,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>42156</v>
       </c>
@@ -8575,7 +8574,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>42186</v>
       </c>
@@ -8599,7 +8598,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>182</v>
@@ -8619,7 +8618,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>42217</v>
       </c>
@@ -8643,7 +8642,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>42248</v>
       </c>
@@ -8667,7 +8666,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>42278</v>
       </c>
@@ -8691,7 +8690,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>42309</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>42313</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>57</v>
@@ -8739,7 +8738,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>98</v>
@@ -8761,7 +8760,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>81</v>
@@ -8781,7 +8780,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>186</v>
@@ -8801,7 +8800,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>42339</v>
       </c>
@@ -8827,7 +8826,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="47" t="s">
         <v>145</v>
       </c>
@@ -8849,7 +8848,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>42370</v>
       </c>
@@ -8875,7 +8874,7 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>57</v>
@@ -8897,7 +8896,7 @@
         <v>42412</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>42401</v>
       </c>
@@ -8917,7 +8916,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>42430</v>
       </c>
@@ -8943,7 +8942,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>42461</v>
       </c>
@@ -8963,7 +8962,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>42491</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>196</v>
@@ -9009,7 +9008,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>42522</v>
       </c>
@@ -9029,7 +9028,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>42552</v>
       </c>
@@ -9049,7 +9048,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>42583</v>
       </c>
@@ -9069,7 +9068,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>42614</v>
       </c>
@@ -9089,7 +9088,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>42644</v>
       </c>
@@ -9109,7 +9108,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>42675</v>
       </c>
@@ -9129,7 +9128,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>42705</v>
       </c>
@@ -9149,7 +9148,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="47" t="s">
         <v>195</v>
       </c>
@@ -9171,7 +9170,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>42736</v>
       </c>
@@ -9191,7 +9190,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42767</v>
       </c>
@@ -9215,7 +9214,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>42795</v>
       </c>
@@ -9235,7 +9234,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>42826</v>
       </c>
@@ -9255,7 +9254,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42856</v>
       </c>
@@ -9275,7 +9274,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>42887</v>
       </c>
@@ -9295,7 +9294,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42917</v>
       </c>
@@ -9315,7 +9314,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>42948</v>
       </c>
@@ -9335,7 +9334,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42979</v>
       </c>
@@ -9355,7 +9354,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>43009</v>
       </c>
@@ -9375,7 +9374,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>43040</v>
       </c>
@@ -9395,7 +9394,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>43070</v>
       </c>
@@ -9421,7 +9420,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>81</v>
@@ -9441,7 +9440,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="47" t="s">
         <v>194</v>
       </c>
@@ -9459,7 +9458,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>43101</v>
       </c>
@@ -9485,7 +9484,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>43132</v>
       </c>
@@ -9505,7 +9504,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>43160</v>
       </c>
@@ -9531,7 +9530,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>68</v>
@@ -9551,7 +9550,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>43191</v>
       </c>
@@ -9571,7 +9570,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>43221</v>
       </c>
@@ -9591,7 +9590,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>43252</v>
       </c>
@@ -9611,7 +9610,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>43282</v>
       </c>
@@ -9631,7 +9630,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>43313</v>
       </c>
@@ -9651,7 +9650,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>43344</v>
       </c>
@@ -9671,7 +9670,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>43374</v>
       </c>
@@ -9691,7 +9690,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>43405</v>
       </c>
@@ -9717,7 +9716,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>43435</v>
       </c>
@@ -9741,7 +9740,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="47" t="s">
         <v>193</v>
       </c>
@@ -9763,7 +9762,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>43466</v>
       </c>
@@ -9783,7 +9782,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>43497</v>
       </c>
@@ -9803,7 +9802,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>43525</v>
       </c>
@@ -9823,7 +9822,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>43556</v>
       </c>
@@ -9843,7 +9842,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>43586</v>
       </c>
@@ -9863,7 +9862,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>43617</v>
       </c>
@@ -9883,7 +9882,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>43647</v>
       </c>
@@ -9903,7 +9902,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>43678</v>
       </c>
@@ -9923,7 +9922,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>43709</v>
       </c>
@@ -9943,7 +9942,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>43739</v>
       </c>
@@ -9963,7 +9962,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>43770</v>
       </c>
@@ -9983,7 +9982,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>43800</v>
       </c>
@@ -10009,7 +10008,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="47" t="s">
         <v>192</v>
       </c>
@@ -10031,7 +10030,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43831</v>
       </c>
@@ -10051,7 +10050,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>43862</v>
       </c>
@@ -10075,7 +10074,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>43891</v>
       </c>
@@ -10095,7 +10094,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43922</v>
       </c>
@@ -10115,7 +10114,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43952</v>
       </c>
@@ -10135,7 +10134,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>43983</v>
       </c>
@@ -10159,7 +10158,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>44013</v>
       </c>
@@ -10181,7 +10180,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>98</v>
@@ -10203,7 +10202,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>44044</v>
       </c>
@@ -10223,7 +10222,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>44075</v>
       </c>
@@ -10247,7 +10246,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>44105</v>
       </c>
@@ -10267,7 +10266,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>44136</v>
       </c>
@@ -10287,7 +10286,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>44166</v>
       </c>
@@ -10311,7 +10310,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="47" t="s">
         <v>213</v>
       </c>
@@ -10333,7 +10332,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>44197</v>
       </c>
@@ -10353,7 +10352,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>44228</v>
       </c>
@@ -10373,7 +10372,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>44256</v>
       </c>
@@ -10393,7 +10392,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>44287</v>
       </c>
@@ -10417,7 +10416,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>44317</v>
       </c>
@@ -10437,7 +10436,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>44348</v>
       </c>
@@ -10457,7 +10456,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>44378</v>
       </c>
@@ -10477,7 +10476,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>44409</v>
       </c>
@@ -10497,7 +10496,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>44440</v>
       </c>
@@ -10517,7 +10516,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>44470</v>
       </c>
@@ -10537,7 +10536,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>44501</v>
       </c>
@@ -10557,7 +10556,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>44531</v>
       </c>
@@ -10581,7 +10580,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="47" t="s">
         <v>212</v>
       </c>
@@ -10603,7 +10602,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>44562</v>
       </c>
@@ -10623,7 +10622,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>44593</v>
       </c>
@@ -10643,7 +10642,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>44621</v>
       </c>
@@ -10663,7 +10662,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>44652</v>
       </c>
@@ -10683,7 +10682,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>44682</v>
       </c>
@@ -10705,7 +10704,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44713</v>
       </c>
@@ -10729,7 +10728,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>44743</v>
       </c>
@@ -10749,7 +10748,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>44774</v>
       </c>
@@ -10769,7 +10768,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>44805</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>57</v>
@@ -10817,7 +10816,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>44835</v>
       </c>
@@ -10843,7 +10842,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>44866</v>
       </c>
@@ -10869,7 +10868,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>44896</v>
       </c>
@@ -10895,7 +10894,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>57</v>
@@ -10917,7 +10916,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="47" t="s">
         <v>218</v>
       </c>
@@ -10935,7 +10934,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>44927</v>
       </c>
@@ -10961,7 +10960,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>57</v>
@@ -10983,7 +10982,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>44958</v>
       </c>
@@ -11007,29 +11006,33 @@
         <v>222</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44986</v>
       </c>
       <c r="B339" s="20"/>
-      <c r="C339" s="13"/>
+      <c r="C339" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D339" s="39"/>
       <c r="E339" s="9"/>
       <c r="F339" s="20"/>
-      <c r="G339" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G339" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H339" s="39"/>
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>45017</v>
       </c>
-      <c r="B340" s="20"/>
+      <c r="B340" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C340" s="13"/>
       <c r="D340" s="39"/>
       <c r="E340" s="9"/>
@@ -11038,12 +11041,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H340" s="39"/>
+      <c r="H340" s="39">
+        <v>1</v>
+      </c>
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
-      <c r="K340" s="20"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K340" s="48">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>45047</v>
       </c>
@@ -11061,7 +11068,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>45078</v>
       </c>
@@ -11079,7 +11086,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>45108</v>
       </c>
@@ -11097,7 +11104,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>45139</v>
       </c>
@@ -11115,7 +11122,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>45170</v>
       </c>
@@ -11133,7 +11140,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>45200</v>
       </c>
@@ -11151,7 +11158,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>45231</v>
       </c>
@@ -11169,7 +11176,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>45261</v>
       </c>
@@ -11187,7 +11194,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>45292</v>
       </c>
@@ -11205,7 +11212,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>45323</v>
       </c>
@@ -11223,7 +11230,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>45352</v>
       </c>
@@ -11241,7 +11248,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>45383</v>
       </c>
@@ -11259,7 +11266,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>45413</v>
       </c>
@@ -11277,7 +11284,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>45444</v>
       </c>
@@ -11295,7 +11302,7 @@
       <c r="J354" s="12"/>
       <c r="K354" s="15"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>45474</v>
       </c>
@@ -11313,7 +11320,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>45505</v>
       </c>
@@ -11331,7 +11338,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>45536</v>
       </c>
@@ -11349,7 +11356,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>45566</v>
       </c>
@@ -11367,7 +11374,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>45597</v>
       </c>
@@ -11385,7 +11392,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>45627</v>
       </c>
@@ -11403,7 +11410,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>45658</v>
       </c>
@@ -11421,7 +11428,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>45689</v>
       </c>
@@ -11439,7 +11446,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>45717</v>
       </c>
@@ -11457,7 +11464,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>45748</v>
       </c>
@@ -11475,7 +11482,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>45778</v>
       </c>
@@ -11493,7 +11500,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>45809</v>
       </c>
@@ -11511,7 +11518,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>45839</v>
       </c>
@@ -11529,7 +11536,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>45870</v>
       </c>
@@ -11547,7 +11554,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>45901</v>
       </c>
@@ -11565,7 +11572,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>45931</v>
       </c>
@@ -11583,7 +11590,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>45962</v>
       </c>
@@ -11601,7 +11608,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>45992</v>
       </c>
@@ -11619,7 +11626,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>46023</v>
       </c>
@@ -11637,7 +11644,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>46054</v>
       </c>
@@ -11655,7 +11662,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>46082</v>
       </c>
@@ -11673,7 +11680,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>46113</v>
       </c>
@@ -11691,7 +11698,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>46143</v>
       </c>
@@ -11709,7 +11716,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>46174</v>
       </c>
@@ -11727,7 +11734,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>46204</v>
       </c>
@@ -11745,7 +11752,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>46235</v>
       </c>
@@ -11763,7 +11770,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>46266</v>
       </c>
@@ -11781,7 +11788,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>46296</v>
       </c>
@@ -11799,7 +11806,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>46327</v>
       </c>
@@ -11817,7 +11824,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>46357</v>
       </c>
@@ -11835,7 +11842,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>46388</v>
       </c>
@@ -11853,7 +11860,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>46419</v>
       </c>
@@ -11871,7 +11878,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>46447</v>
       </c>
@@ -11889,7 +11896,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>46478</v>
       </c>
@@ -11907,7 +11914,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>46508</v>
       </c>
@@ -11925,7 +11932,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>46539</v>
       </c>
@@ -11943,7 +11950,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>46569</v>
       </c>
@@ -11961,7 +11968,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>46600</v>
       </c>
@@ -11979,7 +11986,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>46631</v>
       </c>
@@ -11997,7 +12004,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>46661</v>
       </c>
@@ -12015,7 +12022,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>46692</v>
       </c>
@@ -12033,7 +12040,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>46722</v>
       </c>
@@ -12051,7 +12058,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>46753</v>
       </c>
@@ -12069,7 +12076,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>46784</v>
       </c>
@@ -12087,7 +12094,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>46813</v>
       </c>
@@ -12105,7 +12112,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>46844</v>
       </c>
@@ -12123,7 +12130,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>46874</v>
       </c>
@@ -12141,7 +12148,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>46905</v>
       </c>
@@ -12159,7 +12166,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>46935</v>
       </c>
@@ -12177,7 +12184,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>46966</v>
       </c>
@@ -12195,7 +12202,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>46997</v>
       </c>
@@ -12213,7 +12220,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>47027</v>
       </c>
@@ -12231,7 +12238,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>47058</v>
       </c>
@@ -12249,7 +12256,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>47088</v>
       </c>
@@ -12267,7 +12274,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>47119</v>
       </c>
@@ -12285,7 +12292,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>47150</v>
       </c>
@@ -12303,7 +12310,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>47178</v>
       </c>
@@ -12321,7 +12328,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>47209</v>
       </c>
@@ -12339,7 +12346,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>47239</v>
       </c>
@@ -12357,7 +12364,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>47270</v>
       </c>
@@ -12375,7 +12382,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>47300</v>
       </c>
@@ -12393,7 +12400,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>47331</v>
       </c>
@@ -12411,7 +12418,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>47362</v>
       </c>
@@ -12429,7 +12436,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>47392</v>
       </c>
@@ -12447,7 +12454,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>47423</v>
       </c>
@@ -12465,7 +12472,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>47453</v>
       </c>
@@ -12483,7 +12490,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>47484</v>
       </c>
@@ -12501,7 +12508,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>47515</v>
       </c>
@@ -12519,7 +12526,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>47543</v>
       </c>
@@ -12552,10 +12559,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12578,7 +12585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12586,21 +12593,21 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -12613,7 +12620,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12642,7 +12649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.25</v>
       </c>
@@ -12672,17 +12679,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12703,7 +12710,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12730,7 +12737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12756,7 +12763,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12782,7 +12789,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12808,7 +12815,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12834,7 +12841,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12860,7 +12867,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12886,7 +12893,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12912,7 +12919,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12932,7 +12939,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12952,7 +12959,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12972,7 +12979,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12993,7 +13000,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13014,7 +13021,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13035,7 +13042,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13056,7 +13063,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13077,7 +13084,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13098,7 +13105,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13119,7 +13126,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13140,7 +13147,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13161,7 +13168,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13182,7 +13189,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13203,7 +13210,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13224,7 +13231,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13245,7 +13252,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13266,7 +13273,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13287,7 +13294,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13308,7 +13315,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13329,7 +13336,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13350,7 +13357,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13371,7 +13378,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13392,7 +13399,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13401,7 +13408,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13410,7 +13417,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13419,7 +13426,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13428,7 +13435,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13437,7 +13444,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13446,7 +13453,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13455,7 +13462,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13464,7 +13471,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13473,7 +13480,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13482,7 +13489,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13491,7 +13498,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13500,7 +13507,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13509,7 +13516,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13518,7 +13525,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13527,7 +13534,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13536,7 +13543,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13545,7 +13552,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13554,7 +13561,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13563,7 +13570,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13572,7 +13579,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13581,7 +13588,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13590,7 +13597,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13599,7 +13606,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13608,7 +13615,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13617,7 +13624,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13626,7 +13633,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13635,7 +13642,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13644,7 +13651,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13653,7 +13660,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CALANOG, ALMA P..xlsx
+++ b/REGULAR/CALANOG, ALMA P..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB6450D-7197-4381-BE9F-96F48665A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="231">
   <si>
     <t>PERIOD</t>
   </si>
@@ -722,12 +721,18 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>6/13-14/2023</t>
+  </si>
+  <si>
+    <t>6/19,21,23,29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1080,6 +1085,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,9 +1122,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1567,7 +1572,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1615,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1679,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1739,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1805,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1868,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1966,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2025,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2090,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2133,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2208,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2394,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2460,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2518,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2584,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2640,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2715,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2758,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2824,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2875,7 +2880,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +2978,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,7 +3041,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3090,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3102,25 +3107,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K341" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K343" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3132,13 +3137,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3147,14 +3152,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3458,7 +3463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3468,7 +3473,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3476,97 +3481,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K341"/>
+  <dimension ref="A2:K343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A327" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A330" activePane="bottomLeft"/>
       <selection activeCell="D12" sqref="D12"/>
-      <selection pane="bottomLeft" activeCell="E336" sqref="E336"/>
+      <selection pane="bottomLeft" activeCell="K338" sqref="K338"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="23"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="24"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="24"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3574,7 +3579,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3587,24 +3592,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3639,7 +3644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>23</v>
@@ -3648,7 +3653,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.889999999999958</v>
+        <v>76.889999999999958</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="str">
@@ -3658,12 +3663,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.75</v>
+        <v>138.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>43</v>
       </c>
@@ -3685,7 +3690,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>38565</v>
       </c>
@@ -3705,7 +3710,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>38596</v>
       </c>
@@ -3725,7 +3730,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>38626</v>
       </c>
@@ -3745,7 +3750,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>38657</v>
       </c>
@@ -3765,7 +3770,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>38687</v>
       </c>
@@ -3785,7 +3790,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="18" t="s">
         <v>49</v>
@@ -3805,7 +3810,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>48</v>
       </c>
@@ -3827,7 +3832,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>38718</v>
       </c>
@@ -3851,7 +3856,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>38749</v>
       </c>
@@ -3871,7 +3876,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>38777</v>
       </c>
@@ -3891,7 +3896,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>38808</v>
       </c>
@@ -3915,7 +3920,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>38838</v>
       </c>
@@ -3941,7 +3946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="18" t="s">
         <v>53</v>
@@ -3961,7 +3966,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="18" t="s">
         <v>54</v>
@@ -3981,7 +3986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="18" t="s">
         <v>55</v>
@@ -4003,7 +4008,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="18" t="s">
         <v>56</v>
@@ -4023,7 +4028,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>38869</v>
       </c>
@@ -4049,7 +4054,7 @@
         <v>38867</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="18" t="s">
         <v>57</v>
@@ -4071,7 +4076,7 @@
         <v>38894</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="18" t="s">
         <v>58</v>
@@ -4091,7 +4096,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>38899</v>
       </c>
@@ -4117,7 +4122,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="18" t="s">
         <v>59</v>
@@ -4137,7 +4142,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>38930</v>
       </c>
@@ -4163,7 +4168,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>38961</v>
       </c>
@@ -4183,7 +4188,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>38991</v>
       </c>
@@ -4207,7 +4212,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>39022</v>
       </c>
@@ -4233,7 +4238,7 @@
         <v>39015</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="18" t="s">
         <v>64</v>
@@ -4255,7 +4260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="18" t="s">
         <v>55</v>
@@ -4277,7 +4282,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>39052</v>
       </c>
@@ -4297,7 +4302,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="18"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>47</v>
       </c>
@@ -4319,7 +4324,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="18"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>39083</v>
       </c>
@@ -4343,7 +4348,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="18"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>39114</v>
       </c>
@@ -4365,7 +4370,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="18"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="18" t="s">
         <v>57</v>
@@ -4389,7 +4394,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="18" t="s">
         <v>69</v>
@@ -4413,7 +4418,7 @@
         <v>39133</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>39142</v>
       </c>
@@ -4439,7 +4444,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="18" t="s">
         <v>70</v>
@@ -4461,7 +4466,7 @@
         <v>39170</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="18" t="s">
         <v>57</v>
@@ -4483,7 +4488,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>39173</v>
       </c>
@@ -4509,7 +4514,7 @@
         <v>39214</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="18" t="s">
         <v>73</v>
@@ -4531,7 +4536,7 @@
         <v>39204</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>39203</v>
       </c>
@@ -4557,7 +4562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="18" t="s">
         <v>77</v>
@@ -4581,7 +4586,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>39234</v>
       </c>
@@ -4605,7 +4610,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="18" t="s">
         <v>72</v>
@@ -4625,7 +4630,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="18"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>39264</v>
       </c>
@@ -4651,7 +4656,7 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>39295</v>
       </c>
@@ -4675,7 +4680,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="18"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>39326</v>
       </c>
@@ -4701,7 +4706,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="18" t="s">
         <v>52</v>
@@ -4723,7 +4728,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="18" t="s">
         <v>78</v>
@@ -4743,7 +4748,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="18"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>39356</v>
       </c>
@@ -4767,7 +4772,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="18"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>39387</v>
       </c>
@@ -4793,7 +4798,7 @@
         <v>39385</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="18" t="s">
         <v>80</v>
@@ -4815,7 +4820,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>39417</v>
       </c>
@@ -4839,7 +4844,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="18" t="s">
         <v>82</v>
@@ -4859,7 +4864,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>46</v>
       </c>
@@ -4881,7 +4886,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>39448</v>
       </c>
@@ -4907,7 +4912,7 @@
         <v>39451</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="18" t="s">
         <v>86</v>
@@ -4927,7 +4932,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="18"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>39479</v>
       </c>
@@ -4953,7 +4958,7 @@
         <v>39486</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="18" t="s">
         <v>87</v>
@@ -4973,7 +4978,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="18"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>39508</v>
       </c>
@@ -4999,7 +5004,7 @@
         <v>39513</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="18" t="s">
         <v>88</v>
@@ -5019,7 +5024,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="18"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>39539</v>
       </c>
@@ -5043,7 +5048,7 @@
         <v>39547</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="18" t="s">
         <v>55</v>
@@ -5065,7 +5070,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="18" t="s">
         <v>89</v>
@@ -5085,7 +5090,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="18"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>39569</v>
       </c>
@@ -5109,7 +5114,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="18"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="18" t="s">
         <v>55</v>
@@ -5131,7 +5136,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>39600</v>
       </c>
@@ -5155,7 +5160,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="18"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>39630</v>
       </c>
@@ -5179,7 +5184,7 @@
         <v>39643</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="18" t="s">
         <v>94</v>
@@ -5199,7 +5204,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="18"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>39661</v>
       </c>
@@ -5223,7 +5228,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="18"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>39692</v>
       </c>
@@ -5249,7 +5254,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="18" t="s">
         <v>96</v>
@@ -5269,7 +5274,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="18"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>39722</v>
       </c>
@@ -5295,7 +5300,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>39753</v>
       </c>
@@ -5319,7 +5324,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="18"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="18" t="s">
         <v>99</v>
@@ -5339,7 +5344,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="18"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>39783</v>
       </c>
@@ -5367,7 +5372,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38"/>
       <c r="B85" s="18" t="s">
         <v>100</v>
@@ -5387,7 +5392,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="18"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
         <v>45</v>
       </c>
@@ -5409,7 +5414,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="18"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
         <v>39814</v>
       </c>
@@ -5433,7 +5438,7 @@
         <v>39846</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38"/>
       <c r="B88" s="18" t="s">
         <v>103</v>
@@ -5453,7 +5458,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="18"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38">
         <v>39845</v>
       </c>
@@ -5477,7 +5482,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="18"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <v>39873</v>
       </c>
@@ -5503,7 +5508,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="18" t="s">
         <v>52</v>
@@ -5525,7 +5530,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="18" t="s">
         <v>106</v>
@@ -5545,7 +5550,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="18"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
         <v>39904</v>
       </c>
@@ -5571,7 +5576,7 @@
         <v>39910</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="18" t="s">
         <v>107</v>
@@ -5591,7 +5596,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="18"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>39934</v>
       </c>
@@ -5617,7 +5622,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="18" t="s">
         <v>110</v>
@@ -5637,7 +5642,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="18"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
         <v>39965</v>
       </c>
@@ -5663,7 +5668,7 @@
         <v>39986</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="18" t="s">
         <v>57</v>
@@ -5685,7 +5690,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="18" t="s">
         <v>111</v>
@@ -5705,7 +5710,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="18"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <v>39995</v>
       </c>
@@ -5731,7 +5736,7 @@
         <v>40018</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="18" t="s">
         <v>112</v>
@@ -5751,7 +5756,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="18"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38">
         <v>40026</v>
       </c>
@@ -5777,7 +5782,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="18" t="s">
         <v>113</v>
@@ -5797,7 +5802,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="18"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
         <v>40057</v>
       </c>
@@ -5823,7 +5828,7 @@
         <v>40059</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="18" t="s">
         <v>57</v>
@@ -5845,7 +5850,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="18" t="s">
         <v>70</v>
@@ -5865,7 +5870,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="18"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>40087</v>
       </c>
@@ -5891,7 +5896,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="18" t="s">
         <v>114</v>
@@ -5911,7 +5916,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="18"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
         <v>40118</v>
       </c>
@@ -5937,7 +5942,7 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="18" t="s">
         <v>57</v>
@@ -5959,7 +5964,7 @@
         <v>40149</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="18" t="s">
         <v>115</v>
@@ -5979,7 +5984,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="18"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38">
         <v>40148</v>
       </c>
@@ -6003,7 +6008,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="18"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="43" t="s">
         <v>44</v>
       </c>
@@ -6025,7 +6030,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="18"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38">
         <v>40179</v>
       </c>
@@ -6049,7 +6054,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="18"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
         <v>40210</v>
       </c>
@@ -6075,7 +6080,7 @@
         <v>40211</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="18" t="s">
         <v>57</v>
@@ -6097,7 +6102,7 @@
         <v>40234</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="18" t="s">
         <v>59</v>
@@ -6117,7 +6122,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="18"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <v>40238</v>
       </c>
@@ -6141,7 +6146,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="18"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
         <v>40269</v>
       </c>
@@ -6167,7 +6172,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38"/>
       <c r="B120" s="18" t="s">
         <v>121</v>
@@ -6187,7 +6192,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="18"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38">
         <v>40299</v>
       </c>
@@ -6213,7 +6218,7 @@
         <v>40312</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="18" t="s">
         <v>57</v>
@@ -6235,7 +6240,7 @@
         <v>40318</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38"/>
       <c r="B123" s="18" t="s">
         <v>57</v>
@@ -6257,7 +6262,7 @@
         <v>40326</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38"/>
       <c r="B124" s="18" t="s">
         <v>122</v>
@@ -6277,7 +6282,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="18"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
         <v>40330</v>
       </c>
@@ -6301,7 +6306,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="18"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <v>40360</v>
       </c>
@@ -6327,7 +6332,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
         <v>40391</v>
       </c>
@@ -6353,7 +6358,7 @@
         <v>40415</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
         <v>40422</v>
       </c>
@@ -6373,7 +6378,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="18"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
         <v>40452</v>
       </c>
@@ -6399,7 +6404,7 @@
         <v>40459</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
         <v>40483</v>
       </c>
@@ -6425,7 +6430,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38"/>
       <c r="B131" s="18" t="s">
         <v>124</v>
@@ -6447,7 +6452,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
         <v>40513</v>
       </c>
@@ -6467,7 +6472,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="18"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="43" t="s">
         <v>119</v>
       </c>
@@ -6489,7 +6494,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="18"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>40544</v>
       </c>
@@ -6515,7 +6520,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38"/>
       <c r="B135" s="18" t="s">
         <v>129</v>
@@ -6535,7 +6540,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="18"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
         <v>40575</v>
       </c>
@@ -6561,7 +6566,7 @@
         <v>40576</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38"/>
       <c r="B137" s="18" t="s">
         <v>130</v>
@@ -6583,7 +6588,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="38"/>
       <c r="B138" s="18" t="s">
         <v>131</v>
@@ -6603,7 +6608,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="18"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>40603</v>
       </c>
@@ -6629,7 +6634,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38"/>
       <c r="B140" s="18" t="s">
         <v>132</v>
@@ -6649,7 +6654,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="18"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>40634</v>
       </c>
@@ -6675,7 +6680,7 @@
         <v>40639</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="38"/>
       <c r="B142" s="18" t="s">
         <v>133</v>
@@ -6695,7 +6700,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="18"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <v>40664</v>
       </c>
@@ -6721,7 +6726,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="38"/>
       <c r="B144" s="18" t="s">
         <v>55</v>
@@ -6743,7 +6748,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="38"/>
       <c r="B145" s="18" t="s">
         <v>134</v>
@@ -6763,7 +6768,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="18"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="38">
         <v>40695</v>
       </c>
@@ -6789,7 +6794,7 @@
         <v>40704</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="38"/>
       <c r="B147" s="18" t="s">
         <v>135</v>
@@ -6809,7 +6814,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="18"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
         <v>40725</v>
       </c>
@@ -6835,7 +6840,7 @@
         <v>40738</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="38"/>
       <c r="B149" s="18" t="s">
         <v>136</v>
@@ -6855,7 +6860,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="18"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
         <v>40756</v>
       </c>
@@ -6879,7 +6884,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="18"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="38">
         <v>40787</v>
       </c>
@@ -6905,7 +6910,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="38"/>
       <c r="B152" s="18" t="s">
         <v>141</v>
@@ -6925,7 +6930,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="18"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
         <v>40817</v>
       </c>
@@ -6945,7 +6950,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="18"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="38">
         <v>40848</v>
       </c>
@@ -6971,7 +6976,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="38"/>
       <c r="B155" s="18" t="s">
         <v>142</v>
@@ -6991,7 +6996,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="18"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
         <v>40878</v>
       </c>
@@ -7015,7 +7020,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="18"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="38"/>
       <c r="B157" s="18" t="s">
         <v>143</v>
@@ -7035,7 +7040,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="18"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="43" t="s">
         <v>118</v>
       </c>
@@ -7057,7 +7062,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="18"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="38">
         <v>40909</v>
       </c>
@@ -7083,7 +7088,7 @@
         <v>40926</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="38"/>
       <c r="B160" s="18" t="s">
         <v>55</v>
@@ -7105,7 +7110,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
         <v>40940</v>
       </c>
@@ -7125,7 +7130,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="18"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
         <v>40969</v>
       </c>
@@ -7151,7 +7156,7 @@
         <v>40998</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
         <v>41000</v>
       </c>
@@ -7177,7 +7182,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <v>41030</v>
       </c>
@@ -7197,7 +7202,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="18"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
         <v>41061</v>
       </c>
@@ -7217,7 +7222,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="18"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="38">
         <v>41091</v>
       </c>
@@ -7243,7 +7248,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
         <v>41122</v>
       </c>
@@ -7263,7 +7268,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="18"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="38">
         <v>41153</v>
       </c>
@@ -7283,7 +7288,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="18"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="38">
         <v>41183</v>
       </c>
@@ -7309,7 +7314,7 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
         <v>41214</v>
       </c>
@@ -7329,7 +7334,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="18"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="38">
         <v>41244</v>
       </c>
@@ -7353,7 +7358,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="38"/>
       <c r="B172" s="18" t="s">
         <v>124</v>
@@ -7375,7 +7380,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="43" t="s">
         <v>117</v>
       </c>
@@ -7393,7 +7398,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="18"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
         <v>41275</v>
       </c>
@@ -7417,7 +7422,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
         <v>41306</v>
       </c>
@@ -7443,7 +7448,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="38">
         <v>41334</v>
       </c>
@@ -7463,7 +7468,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="18"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="38">
         <v>41365</v>
       </c>
@@ -7489,7 +7494,7 @@
         <v>41369</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="38">
         <v>41395</v>
       </c>
@@ -7515,7 +7520,7 @@
         <v>41415</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="38">
         <v>41426</v>
       </c>
@@ -7535,7 +7540,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="18"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="38">
         <v>41456</v>
       </c>
@@ -7561,7 +7566,7 @@
         <v>41465</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="38">
         <v>41487</v>
       </c>
@@ -7581,7 +7586,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="18"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="38">
         <v>41518</v>
       </c>
@@ -7607,7 +7612,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="38">
         <v>41548</v>
       </c>
@@ -7627,7 +7632,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="18"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="38">
         <v>41579</v>
       </c>
@@ -7647,7 +7652,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="18"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="38">
         <v>41609</v>
       </c>
@@ -7673,7 +7678,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="43" t="s">
         <v>147</v>
       </c>
@@ -7695,7 +7700,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="18"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="38">
         <v>41640</v>
       </c>
@@ -7721,7 +7726,7 @@
         <v>41670</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="38"/>
       <c r="B188" s="18" t="s">
         <v>158</v>
@@ -7743,7 +7748,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="38">
         <v>41671</v>
       </c>
@@ -7767,7 +7772,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="18"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="38">
         <v>41699</v>
       </c>
@@ -7793,7 +7798,7 @@
         <v>41711</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="38"/>
       <c r="B191" s="18" t="s">
         <v>57</v>
@@ -7815,7 +7820,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="38"/>
       <c r="B192" s="18" t="s">
         <v>160</v>
@@ -7835,7 +7840,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="18"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="38">
         <v>41730</v>
       </c>
@@ -7861,7 +7866,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="38"/>
       <c r="B194" s="18" t="s">
         <v>161</v>
@@ -7881,7 +7886,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="18"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="38">
         <v>41760</v>
       </c>
@@ -7907,7 +7912,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="38"/>
       <c r="B196" s="18" t="s">
         <v>162</v>
@@ -7927,7 +7932,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="18"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="38">
         <v>41791</v>
       </c>
@@ -7951,7 +7956,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="18"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="38">
         <v>41821</v>
       </c>
@@ -7977,7 +7982,7 @@
         <v>41824</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="38"/>
       <c r="B199" s="18" t="s">
         <v>68</v>
@@ -7997,7 +8002,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="38"/>
       <c r="B200" s="18" t="s">
         <v>168</v>
@@ -8017,7 +8022,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="18"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="38">
         <v>41852</v>
       </c>
@@ -8041,7 +8046,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="18"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="38">
         <v>41883</v>
       </c>
@@ -8065,7 +8070,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="18"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="38">
         <v>41913</v>
       </c>
@@ -8089,7 +8094,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="18"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="38">
         <v>41944</v>
       </c>
@@ -8113,7 +8118,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="38"/>
       <c r="B205" s="18" t="s">
         <v>130</v>
@@ -8133,7 +8138,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="18"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="38"/>
       <c r="B206" s="18" t="s">
         <v>172</v>
@@ -8153,7 +8158,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="18"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="38">
         <v>41974</v>
       </c>
@@ -8181,7 +8186,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="18"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="43" t="s">
         <v>146</v>
       </c>
@@ -8203,7 +8208,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="18"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="38">
         <v>42005</v>
       </c>
@@ -8229,7 +8234,7 @@
         <v>42354</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="38"/>
       <c r="B210" s="18" t="s">
         <v>57</v>
@@ -8251,7 +8256,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="38"/>
       <c r="B211" s="18" t="s">
         <v>175</v>
@@ -8271,7 +8276,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="18"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="38">
         <v>42036</v>
       </c>
@@ -8295,7 +8300,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="18"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="38">
         <v>42064</v>
       </c>
@@ -8321,7 +8326,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="38"/>
       <c r="B214" s="18" t="s">
         <v>177</v>
@@ -8341,7 +8346,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="18"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="38">
         <v>42095</v>
       </c>
@@ -8367,7 +8372,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="38"/>
       <c r="B216" s="18" t="s">
         <v>178</v>
@@ -8387,7 +8392,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="18"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <v>42125</v>
       </c>
@@ -8411,7 +8416,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="18"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="38">
         <v>42156</v>
       </c>
@@ -8435,7 +8440,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="18"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="38">
         <v>42186</v>
       </c>
@@ -8459,7 +8464,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="38"/>
       <c r="B220" s="18" t="s">
         <v>182</v>
@@ -8479,7 +8484,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="18"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="38">
         <v>42217</v>
       </c>
@@ -8503,7 +8508,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="18"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="38">
         <v>42248</v>
       </c>
@@ -8527,7 +8532,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="18"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="38">
         <v>42278</v>
       </c>
@@ -8551,7 +8556,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="18"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="38">
         <v>42309</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>42313</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="38"/>
       <c r="B225" s="18" t="s">
         <v>57</v>
@@ -8599,7 +8604,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="38"/>
       <c r="B226" s="18" t="s">
         <v>98</v>
@@ -8621,7 +8626,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="38"/>
       <c r="B227" s="18" t="s">
         <v>81</v>
@@ -8641,7 +8646,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="38"/>
       <c r="B228" s="18" t="s">
         <v>186</v>
@@ -8661,7 +8666,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="18"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="38">
         <v>42339</v>
       </c>
@@ -8687,7 +8692,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="43" t="s">
         <v>145</v>
       </c>
@@ -8709,7 +8714,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="18"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="38">
         <v>42370</v>
       </c>
@@ -8735,7 +8740,7 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="38"/>
       <c r="B232" s="18" t="s">
         <v>57</v>
@@ -8757,7 +8762,7 @@
         <v>42412</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="38">
         <v>42401</v>
       </c>
@@ -8777,7 +8782,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="18"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="38">
         <v>42430</v>
       </c>
@@ -8803,7 +8808,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="38">
         <v>42461</v>
       </c>
@@ -8823,7 +8828,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="18"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="38">
         <v>42491</v>
       </c>
@@ -8847,7 +8852,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="38"/>
       <c r="B237" s="18" t="s">
         <v>196</v>
@@ -8869,7 +8874,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="38">
         <v>42522</v>
       </c>
@@ -8889,7 +8894,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="18"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="38">
         <v>42552</v>
       </c>
@@ -8909,7 +8914,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="18"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="38">
         <v>42583</v>
       </c>
@@ -8929,7 +8934,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="18"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="38">
         <v>42614</v>
       </c>
@@ -8949,7 +8954,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="18"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="38">
         <v>42644</v>
       </c>
@@ -8969,7 +8974,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="18"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="38">
         <v>42675</v>
       </c>
@@ -8989,7 +8994,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="18"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="38">
         <v>42705</v>
       </c>
@@ -9009,7 +9014,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="18"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="43" t="s">
         <v>195</v>
       </c>
@@ -9031,7 +9036,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="18"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="38">
         <v>42736</v>
       </c>
@@ -9051,7 +9056,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="18"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="38">
         <v>42767</v>
       </c>
@@ -9075,7 +9080,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="18"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="38">
         <v>42795</v>
       </c>
@@ -9095,7 +9100,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="18"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="38">
         <v>42826</v>
       </c>
@@ -9115,7 +9120,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="18"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="38">
         <v>42856</v>
       </c>
@@ -9135,7 +9140,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="18"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="38">
         <v>42887</v>
       </c>
@@ -9155,7 +9160,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="18"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="38">
         <v>42917</v>
       </c>
@@ -9175,7 +9180,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="18"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="38">
         <v>42948</v>
       </c>
@@ -9195,7 +9200,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="18"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="38">
         <v>42979</v>
       </c>
@@ -9215,7 +9220,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="18"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="38">
         <v>43009</v>
       </c>
@@ -9235,7 +9240,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="18"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="38">
         <v>43040</v>
       </c>
@@ -9255,7 +9260,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="18"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="38">
         <v>43070</v>
       </c>
@@ -9281,7 +9286,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="38"/>
       <c r="B258" s="18" t="s">
         <v>81</v>
@@ -9301,7 +9306,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="43" t="s">
         <v>194</v>
       </c>
@@ -9319,7 +9324,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="18"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="38">
         <v>43101</v>
       </c>
@@ -9345,7 +9350,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="38">
         <v>43132</v>
       </c>
@@ -9365,7 +9370,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="18"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="38">
         <v>43160</v>
       </c>
@@ -9391,7 +9396,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="38"/>
       <c r="B263" s="18" t="s">
         <v>68</v>
@@ -9411,7 +9416,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="38">
         <v>43191</v>
       </c>
@@ -9431,7 +9436,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="18"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="38">
         <v>43221</v>
       </c>
@@ -9451,7 +9456,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="18"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="38">
         <v>43252</v>
       </c>
@@ -9471,7 +9476,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="18"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="38">
         <v>43282</v>
       </c>
@@ -9491,7 +9496,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="18"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="38">
         <v>43313</v>
       </c>
@@ -9511,7 +9516,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="18"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="38">
         <v>43344</v>
       </c>
@@ -9531,7 +9536,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="18"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="38">
         <v>43374</v>
       </c>
@@ -9551,7 +9556,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="18"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="38">
         <v>43405</v>
       </c>
@@ -9577,7 +9582,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="38">
         <v>43435</v>
       </c>
@@ -9601,7 +9606,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="18"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="43" t="s">
         <v>193</v>
       </c>
@@ -9623,7 +9628,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="18"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="38">
         <v>43466</v>
       </c>
@@ -9643,7 +9648,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="18"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="38">
         <v>43497</v>
       </c>
@@ -9663,7 +9668,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="18"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="38">
         <v>43525</v>
       </c>
@@ -9683,7 +9688,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="18"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="38">
         <v>43556</v>
       </c>
@@ -9703,7 +9708,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="18"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="38">
         <v>43586</v>
       </c>
@@ -9723,7 +9728,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="18"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="38">
         <v>43617</v>
       </c>
@@ -9743,7 +9748,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="18"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="38">
         <v>43647</v>
       </c>
@@ -9763,7 +9768,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="18"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="38">
         <v>43678</v>
       </c>
@@ -9783,7 +9788,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="18"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="38">
         <v>43709</v>
       </c>
@@ -9803,7 +9808,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="18"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="38">
         <v>43739</v>
       </c>
@@ -9823,7 +9828,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="18"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="38">
         <v>43770</v>
       </c>
@@ -9843,7 +9848,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="18"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="38">
         <v>43800</v>
       </c>
@@ -9869,7 +9874,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="43" t="s">
         <v>192</v>
       </c>
@@ -9891,7 +9896,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="18"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="38">
         <v>43831</v>
       </c>
@@ -9911,7 +9916,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="18"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="38">
         <v>43862</v>
       </c>
@@ -9935,7 +9940,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="38">
         <v>43891</v>
       </c>
@@ -9955,7 +9960,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="18"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="38">
         <v>43922</v>
       </c>
@@ -9975,7 +9980,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="18"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="38">
         <v>43952</v>
       </c>
@@ -9995,7 +10000,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="18"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="38">
         <v>43983</v>
       </c>
@@ -10019,7 +10024,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="38">
         <v>44013</v>
       </c>
@@ -10041,7 +10046,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="18"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="38"/>
       <c r="B294" s="18" t="s">
         <v>98</v>
@@ -10063,7 +10068,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="38">
         <v>44044</v>
       </c>
@@ -10083,7 +10088,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="18"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="38">
         <v>44075</v>
       </c>
@@ -10107,7 +10112,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="38">
         <v>44105</v>
       </c>
@@ -10127,7 +10132,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="18"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="38">
         <v>44136</v>
       </c>
@@ -10147,7 +10152,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="18"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="38">
         <v>44166</v>
       </c>
@@ -10171,7 +10176,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="18"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="43" t="s">
         <v>213</v>
       </c>
@@ -10193,7 +10198,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="18"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="38">
         <v>44197</v>
       </c>
@@ -10213,7 +10218,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="18"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="38">
         <v>44228</v>
       </c>
@@ -10233,7 +10238,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="18"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="38">
         <v>44256</v>
       </c>
@@ -10253,7 +10258,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="18"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="38">
         <v>44287</v>
       </c>
@@ -10277,7 +10282,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="18"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="38">
         <v>44317</v>
       </c>
@@ -10297,7 +10302,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="18"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="38">
         <v>44348</v>
       </c>
@@ -10317,7 +10322,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="18"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="38">
         <v>44378</v>
       </c>
@@ -10337,7 +10342,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="18"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="38">
         <v>44409</v>
       </c>
@@ -10357,7 +10362,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="18"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="38">
         <v>44440</v>
       </c>
@@ -10377,7 +10382,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="18"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="38">
         <v>44470</v>
       </c>
@@ -10397,7 +10402,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="18"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="38">
         <v>44501</v>
       </c>
@@ -10417,7 +10422,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="18"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="38">
         <v>44531</v>
       </c>
@@ -10441,7 +10446,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="18"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="43" t="s">
         <v>212</v>
       </c>
@@ -10463,7 +10468,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="18"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="38">
         <v>44562</v>
       </c>
@@ -10483,7 +10488,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="18"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="38">
         <v>44593</v>
       </c>
@@ -10503,7 +10508,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="18"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="38">
         <v>44621</v>
       </c>
@@ -10523,7 +10528,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="18"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="38">
         <v>44652</v>
       </c>
@@ -10543,7 +10548,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="18"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="38">
         <v>44682</v>
       </c>
@@ -10565,7 +10570,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="38">
         <v>44713</v>
       </c>
@@ -10589,7 +10594,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="18"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="38">
         <v>44743</v>
       </c>
@@ -10609,7 +10614,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="18"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="38">
         <v>44774</v>
       </c>
@@ -10629,7 +10634,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="18"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="38">
         <v>44805</v>
       </c>
@@ -10655,7 +10660,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="38"/>
       <c r="B323" s="18" t="s">
         <v>57</v>
@@ -10677,7 +10682,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="38">
         <v>44835</v>
       </c>
@@ -10703,7 +10708,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="38">
         <v>44866</v>
       </c>
@@ -10729,7 +10734,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="38">
         <v>44896</v>
       </c>
@@ -10755,7 +10760,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="38"/>
       <c r="B327" s="18" t="s">
         <v>57</v>
@@ -10777,7 +10782,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="43" t="s">
         <v>218</v>
       </c>
@@ -10795,7 +10800,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="18"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="38">
         <v>44927</v>
       </c>
@@ -10821,7 +10826,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="38"/>
       <c r="B330" s="18" t="s">
         <v>57</v>
@@ -10843,7 +10848,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="38">
         <v>44958</v>
       </c>
@@ -10867,7 +10872,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="38">
         <v>44986</v>
       </c>
@@ -10887,7 +10892,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="18"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="38">
         <v>45017</v>
       </c>
@@ -10913,7 +10918,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="38">
         <v>45047</v>
       </c>
@@ -10939,7 +10944,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="38">
         <v>45078</v>
       </c>
@@ -10963,11 +10968,11 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="38">
-        <v>45108</v>
-      </c>
-      <c r="B336" s="18"/>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="38"/>
+      <c r="B336" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="C336" s="12"/>
       <c r="D336" s="37"/>
       <c r="E336" s="9"/>
@@ -10976,18 +10981,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H336" s="37"/>
+      <c r="H336" s="37">
+        <v>2</v>
+      </c>
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
-      <c r="K336" s="18"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="38">
-        <v>45139</v>
-      </c>
-      <c r="B337" s="18"/>
+      <c r="K336" s="44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="38"/>
+      <c r="B337" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="C337" s="12"/>
-      <c r="D337" s="37"/>
+      <c r="D337" s="37">
+        <v>4</v>
+      </c>
       <c r="E337" s="9"/>
       <c r="F337" s="18"/>
       <c r="G337" s="12" t="str">
@@ -10997,11 +11008,13 @@
       <c r="H337" s="37"/>
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
-      <c r="K337" s="18"/>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K337" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="38">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B338" s="18"/>
       <c r="C338" s="12"/>
@@ -11017,9 +11030,9 @@
       <c r="J338" s="11"/>
       <c r="K338" s="18"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="38">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B339" s="18"/>
       <c r="C339" s="12"/>
@@ -11035,9 +11048,9 @@
       <c r="J339" s="11"/>
       <c r="K339" s="18"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="38">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B340" s="18"/>
       <c r="C340" s="12"/>
@@ -11053,9 +11066,9 @@
       <c r="J340" s="11"/>
       <c r="K340" s="18"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="38">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B341" s="18"/>
       <c r="C341" s="12"/>
@@ -11070,6 +11083,42 @@
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
       <c r="K341" s="18"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="38">
+        <v>45231</v>
+      </c>
+      <c r="B342" s="18"/>
+      <c r="C342" s="12"/>
+      <c r="D342" s="37"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="18"/>
+      <c r="G342" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H342" s="37"/>
+      <c r="I342" s="9"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="18"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="38">
+        <v>45261</v>
+      </c>
+      <c r="B343" s="18"/>
+      <c r="C343" s="12"/>
+      <c r="D343" s="37"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="18"/>
+      <c r="G343" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H343" s="37"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11086,10 +11135,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11112,7 +11161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11120,34 +11169,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="56" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -11176,7 +11225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.25</v>
       </c>
@@ -11206,17 +11255,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>228</v>
       </c>
@@ -11233,17 +11282,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="39"/>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="58">
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>221.63999999999996</v>
+        <v>215.63999999999996</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
@@ -11271,7 +11320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -11297,7 +11346,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -11323,7 +11372,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -11349,7 +11398,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -11375,7 +11424,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -11401,7 +11450,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -11427,7 +11476,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -11453,7 +11502,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -11473,7 +11522,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -11493,7 +11542,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -11513,7 +11562,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -11534,7 +11583,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -11555,7 +11604,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -11576,7 +11625,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -11597,7 +11646,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -11618,7 +11667,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -11639,7 +11688,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -11660,7 +11709,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -11681,7 +11730,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -11702,7 +11751,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -11723,7 +11772,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -11744,7 +11793,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -11765,7 +11814,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -11786,7 +11835,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -11807,7 +11856,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -11828,7 +11877,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -11849,7 +11898,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -11870,7 +11919,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -11891,7 +11940,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -11912,7 +11961,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -11933,7 +11982,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -11942,7 +11991,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -11951,7 +12000,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -11960,7 +12009,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -11969,7 +12018,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -11978,7 +12027,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -11987,7 +12036,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -11996,7 +12045,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -12005,7 +12054,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -12014,7 +12063,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -12023,7 +12072,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -12032,7 +12081,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -12041,7 +12090,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -12050,7 +12099,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -12059,7 +12108,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -12068,7 +12117,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -12077,7 +12126,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -12086,7 +12135,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -12095,7 +12144,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -12104,7 +12153,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -12113,7 +12162,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -12122,7 +12171,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -12131,7 +12180,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -12140,7 +12189,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -12149,7 +12198,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -12158,7 +12207,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -12167,7 +12216,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -12176,7 +12225,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -12185,7 +12234,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -12194,7 +12243,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CALANOG, ALMA P..xlsx
+++ b/REGULAR/CALANOG, ALMA P..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="231">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1572,7 +1572,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1615,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1679,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1739,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1805,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1868,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1966,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2025,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2090,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2133,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2208,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2394,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2460,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2518,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2584,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2640,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2715,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2758,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2824,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2880,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +2978,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,7 +3041,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,9 +3488,9 @@
   <dimension ref="A2:K343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A330" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A324" activePane="bottomLeft"/>
       <selection activeCell="D12" sqref="D12"/>
-      <selection pane="bottomLeft" activeCell="K338" sqref="K338"/>
+      <selection pane="bottomLeft" activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3653,7 +3653,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>76.889999999999958</v>
+        <v>78.139999999999958</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="str">
@@ -3663,7 +3663,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>138.75</v>
+        <v>140</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
@@ -10951,13 +10951,15 @@
       <c r="B335" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C335" s="12"/>
+      <c r="C335" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D335" s="37"/>
       <c r="E335" s="9"/>
       <c r="F335" s="18"/>
-      <c r="G335" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G335" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H335" s="37">
         <v>1</v>
@@ -11016,7 +11018,9 @@
       <c r="A338" s="38">
         <v>45108</v>
       </c>
-      <c r="B338" s="18"/>
+      <c r="B338" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="C338" s="12"/>
       <c r="D338" s="37"/>
       <c r="E338" s="9"/>
@@ -11028,7 +11032,9 @@
       <c r="H338" s="37"/>
       <c r="I338" s="9"/>
       <c r="J338" s="11"/>
-      <c r="K338" s="18"/>
+      <c r="K338" s="44">
+        <v>45121</v>
+      </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="38">
@@ -11292,7 +11298,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>215.63999999999996</v>
+        <v>218.13999999999996</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
